--- a/DCFLFINANCE/dt2.xlsx
+++ b/DCFLFINANCE/dt2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <x:si>
     <x:t>documentNumber</x:t>
   </x:si>
@@ -70,97 +70,973 @@
     <x:t>description</x:t>
   </x:si>
   <x:si>
-    <x:t>ACR20101212901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>逾期罚金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220EX305757</x:t>
+    <x:t>ACR20040300604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218EX307870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河南千里马工程机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>增值税普通发票</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>011002000111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-04-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>张照彬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,583.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,102.47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,480.53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未反冲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未取消</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未作废</x:t>
+  </x:si>
+  <x:si>
+    <x:t>张照彬(218EX307870,24450)(17~17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300605</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218EX308819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福建省斗山工程机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吴桂生</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21,300.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,225.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,424.78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吴桂生(218EX308819,24272)(14~15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300606</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218EX308891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青海越达工程机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>赵得忠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,792.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,241.56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,550.44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>赵得忠(218EX308891,23598)(15~15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>租息</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX301901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>长沙市恒信工程机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黄真海</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,756.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49.70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>382.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黄真海(219EX301901,023675)(11~11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,108.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,215.93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX302424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨延荣</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,083.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,275.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,807.96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨延荣(219EX302424,025418)(12~12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300609</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX303032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>斗山工程机械（中国）有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>房振兴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,721.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>888.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,832.74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>房振兴(219EX303032,029742)(11~11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300610</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX303762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黄章国</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>409.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黄章国(219EX303762,024069)(10~10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,104.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,188.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX309071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>贵州金骏斗山机械设备有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>曾德武</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,433.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,315.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,117.70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>曾德武(219EX309071,026420)(6~6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300612</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX309490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重庆千里马工程机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>邱彬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,250.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>719.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,530.97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>邱彬(219EX309490,026241)(5~5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300613</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX307370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>冯杰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47,046.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>643.44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,949.56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>冯杰(219EX307370,021199)(9~9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,768.93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36,684.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219WL307484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河南斗升机械设备有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨志磊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21,250.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,444.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,805.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨志磊(219WL307484,010019)(8~8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX307678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>马学林</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47,538.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,620.82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,160.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>马学林(219EX307678,022400)(7~8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113.66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>874.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,614.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,109.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>924.78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX307986</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨关明</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>884.96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨关明(219EX307986,030941)(8~8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX310375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>云南千里马工程机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苏宇超</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37,909.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,714.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苏宇超(219EX310375,021273)(4~4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,138.37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31,833.63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300618</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX310887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广西松宇机电设备有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>钟华奎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,804.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244.70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,882.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>钟华奎(219EX310887,023048)(3~3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,803.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,873.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX311940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>周忠宝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>568.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,376.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>周忠宝(219EX311940,022854)(3~3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,077.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,977.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218EX307954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安徽力源斗山工程机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>孙性武</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,121.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,164.36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,956.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>孙性武(218EX307954,24524)(17~17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX300169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>刘湘丽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,663.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,801.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,861.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>刘湘丽(219EX300169,030479)(13~13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX300333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>广州松宇斗山机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>邹学友</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,667.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>767.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,900.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>邹学友(219EX300333,020099)(13~13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX300416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>曹奎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,083.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,044.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,038.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>曹奎(219EX300416,024901)(14~14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX300468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>朱登攀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,942.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>798.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,143.36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>朱登攀(219EX300468,028041)(14~14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300625</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX300545</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>张进</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,366.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>张进(219EX300545,030533)(12~12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,729.92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,307.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX301480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>千里马（四川）工程机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>林强</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,583.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,710.62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>林强(219EX301480,021164)(11~11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX301526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>千里马机械供应链股份有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>袁刚本</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71,125.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57.52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>442.48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>袁刚本(219EX301526,021915)(12~13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,125.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62,500.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX304928</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>马福海</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,763.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,238.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,524.78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>马福海(219EX304928,025615)(10~10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX306775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>丁能飞</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53,404.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60.86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>468.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>丁能飞(219EX306775,024438)(9~9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,082.96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,792.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX309057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宁夏千里马工程机械有限公司</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>张争</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,333.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,533.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,799.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>张争(219EX309057,022122)(6~6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX308041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨沅林</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,543.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336.96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,592.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨沅林(219EX308041,024409)(7~7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,566.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,047.79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX308460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>朱立波</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,417.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,118.77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,298.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>朱立波(219EX308460,022072)(6~6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300633</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX312389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>卢祥平</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,846.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>571.77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,398.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>卢祥平(219EX312389,021610)(1~1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,083.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,793.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX300412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>马金柱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>马金柱(219EX300412,024951)(13~13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300635</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX302146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蔡志刚</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,625.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,222.35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,402.65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蔡志刚(219EX302146,025480)(12~12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX301210</x:t>
   </x:si>
   <x:si>
     <x:t>陕西金骏斗山机械设备有限公司</x:t>
   </x:si>
   <x:si>
-    <x:t>增值税普通发票</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43697366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>011002000511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-10-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>王斌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-41.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-4.73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-36.42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>反冲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>未取消</x:t>
-  </x:si>
-  <x:si>
-    <x:t>未作废</x:t>
-  </x:si>
-  <x:si>
-    <x:t>王斌(220EX305757,035095)(4~4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACR20090115900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>本金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43697367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-6,333.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-728.58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-5,604.42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>王斌(220EX305757,035095)(3~3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACR20090115899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43697365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-34.79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-4.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-30.79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACR20101212902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43697368</x:t>
+    <x:t>50541259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>常焕东</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38,511.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,088.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>常焕东(219EX301210,020961)(12~12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,288.96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,992.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACR20040300637</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219EX301614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50541220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨爱文</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,167.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>709.48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,457.52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杨爱文(219EX301614,029151)(12~12)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -634,19 +1510,19 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>24</x:v>
@@ -655,19 +1531,19 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
         <x:v>30</x:v>
@@ -682,119 +1558,2695 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="R3" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:18">
       <x:c r="A4" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P4" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Q4" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:18">
       <x:c r="A5" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:18">
+      <x:c r="A6" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R6" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:18">
+      <x:c r="A7" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:18">
+      <x:c r="A8" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R8" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:18">
+      <x:c r="A9" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R9" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:18">
+      <x:c r="A10" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R10" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:18">
+      <x:c r="A11" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R11" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:18">
+      <x:c r="A12" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O12" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R12" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:18">
+      <x:c r="A13" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q13" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R13" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:18">
+      <x:c r="A14" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R14" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:18">
+      <x:c r="A15" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R15" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:18">
+      <x:c r="A16" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R16" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:18">
+      <x:c r="A17" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q17" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R17" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:18">
+      <x:c r="A18" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O18" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q18" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R18" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:18">
+      <x:c r="A19" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q19" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R19" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:18">
+      <x:c r="A20" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O20" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q20" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R20" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:18">
+      <x:c r="A21" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O21" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P21" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q21" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R21" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:18">
+      <x:c r="A22" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O22" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q22" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R22" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:18">
+      <x:c r="A23" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="N23" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O23" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q23" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R23" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:18">
+      <x:c r="A24" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O24" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q24" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R24" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:18">
+      <x:c r="A25" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O25" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q25" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R25" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:18">
+      <x:c r="A26" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O26" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q26" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R26" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:18">
+      <x:c r="A27" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P27" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q27" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R27" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:18">
+      <x:c r="A28" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O28" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q28" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R28" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:18">
+      <x:c r="A29" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="K29" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O29" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P29" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q29" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R29" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:18">
+      <x:c r="A30" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="K30" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="L30" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="N30" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O30" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q30" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R30" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:18">
+      <x:c r="A31" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="K31" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="L31" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="N31" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O31" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q31" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R31" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:18">
+      <x:c r="A32" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="K32" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="L32" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="M32" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="N32" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O32" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P32" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q32" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R32" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:18">
+      <x:c r="A33" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O33" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P33" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q33" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R33" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:18">
+      <x:c r="A34" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="K34" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="L34" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="M34" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O34" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P34" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q34" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R34" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:18">
+      <x:c r="A35" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="K35" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="L35" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="M35" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="N35" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O35" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q35" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R35" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:18">
+      <x:c r="A36" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="K36" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="L36" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="M36" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="N36" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O36" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q36" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R36" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:18">
+      <x:c r="A37" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="K37" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="N37" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O37" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P37" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q37" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R37" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:18">
+      <x:c r="A38" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="K38" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="M38" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="N38" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O38" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q38" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R38" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:18">
+      <x:c r="A39" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="J39" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="K39" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="L39" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="M39" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="N39" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O39" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q39" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R39" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:18">
+      <x:c r="A40" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="K40" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="L40" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="M40" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="N40" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O40" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P40" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q40" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R40" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:18">
+      <x:c r="A41" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="K41" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="N41" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O41" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P41" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q41" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R41" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:18">
+      <x:c r="A42" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="M42" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="N42" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O42" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P42" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q42" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R42" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:18">
+      <x:c r="A43" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="M43" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="N43" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O43" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q43" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R43" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:18">
+      <x:c r="A44" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="K44" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="L44" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="M44" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="N44" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O44" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P44" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q44" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R44" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:18">
+      <x:c r="A45" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="K45" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="L45" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="M45" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="N45" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O45" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P45" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q45" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R45" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:18">
+      <x:c r="A46" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="K46" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="L46" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="M46" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="N46" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O46" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P46" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q46" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R46" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:18">
+      <x:c r="A47" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="L47" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="M47" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N47" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O47" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P47" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q47" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R47" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:18">
+      <x:c r="A48" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Q5" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="R5" s="0" t="s">
-        <x:v>34</x:v>
+      <x:c r="E48" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="K48" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="L48" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="M48" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="N48" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O48" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P48" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q48" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R48" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:18">
+      <x:c r="A49" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="M49" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="N49" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O49" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P49" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q49" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R49" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:18">
+      <x:c r="A50" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="K50" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="L50" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="M50" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="N50" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O50" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P50" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q50" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R50" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:18">
+      <x:c r="A51" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="K51" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="L51" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="M51" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="N51" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O51" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P51" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q51" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R51" s="0" t="s">
+        <x:v>340</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
